--- a/AVR2560/TMR_Calculataion.xlsx
+++ b/AVR2560/TMR_Calculataion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxed\Desktop\Proyectos\AVR2560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0706BB58-8BC0-4EF0-816A-A8C0BDF652A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F342F3-0AF2-447E-9C64-4EB615B37B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{539DF522-1004-4F8B-80BB-6BC88459F862}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>F_OSC (MHz)</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Wishly Time (µS)</t>
+  </si>
+  <si>
+    <t>MODO NORMAL</t>
+  </si>
+  <si>
+    <t>MODO CTC</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>Varibles</t>
+  </si>
+  <si>
+    <t>Resultados</t>
   </si>
 </sst>
 </file>
@@ -122,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,19 +471,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B03A05-BB20-41B5-9099-A46FF3951ECB}">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="8" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -493,8 +527,11 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>500</v>
       </c>
@@ -505,7 +542,7 @@
         <f>1/C3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>64</v>
       </c>
       <c r="F3" s="4">
@@ -525,8 +562,11 @@
       <c r="L3" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <f>(F3+1-H4)*G3</f>
         <v>500</v>
@@ -543,7 +583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -554,7 +594,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -565,9 +605,79 @@
         <v>1024</v>
       </c>
     </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <f>1/C10</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E10*D10</f>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="5">
+        <f>B10/F10-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B8:L8"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{F0CD7805-2E9A-4B2F-85E6-731EE914A35F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E10" xr:uid="{F0CD7805-2E9A-4B2F-85E6-731EE914A35F}">
       <formula1>$L$2:$L$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{FCA61CF5-1723-4D69-ADEA-60FCA4DE4620}">
